--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H2">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I2">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J2">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N2">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O2">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P2">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q2">
-        <v>36.048768607377</v>
+        <v>130.658970628278</v>
       </c>
       <c r="R2">
-        <v>144.195074429508</v>
+        <v>522.6358825131121</v>
       </c>
       <c r="S2">
-        <v>0.001736908462184078</v>
+        <v>0.006666194183266977</v>
       </c>
       <c r="T2">
-        <v>0.0008439031108302577</v>
+        <v>0.00340918055948378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H3">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I3">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J3">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P3">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q3">
-        <v>194.006045941364</v>
+        <v>327.094214416686</v>
       </c>
       <c r="R3">
-        <v>1164.036275648184</v>
+        <v>1962.565286500116</v>
       </c>
       <c r="S3">
-        <v>0.009347635326480211</v>
+        <v>0.01668828048345945</v>
       </c>
       <c r="T3">
-        <v>0.006812533909533776</v>
+        <v>0.01280191361772037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H4">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I4">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J4">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N4">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O4">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P4">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q4">
-        <v>536.6813338485314</v>
+        <v>511.9304655141061</v>
       </c>
       <c r="R4">
-        <v>3220.088003091188</v>
+        <v>3071.582793084636</v>
       </c>
       <c r="S4">
-        <v>0.0258584796726453</v>
+        <v>0.02611858852888213</v>
       </c>
       <c r="T4">
-        <v>0.01884559714475067</v>
+        <v>0.02003609146520153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H5">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I5">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J5">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N5">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O5">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P5">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q5">
-        <v>81.54777643151951</v>
+        <v>198.5232656588715</v>
       </c>
       <c r="R5">
-        <v>326.191105726078</v>
+        <v>794.0930626354861</v>
       </c>
       <c r="S5">
-        <v>0.003929150104928027</v>
+        <v>0.01012861675256392</v>
       </c>
       <c r="T5">
-        <v>0.0019090366986285</v>
+        <v>0.005179909612290955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H6">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I6">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J6">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N6">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O6">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P6">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q6">
-        <v>51.40638248023733</v>
+        <v>143.7639403964775</v>
       </c>
       <c r="R6">
-        <v>308.438294881424</v>
+        <v>862.5836423788652</v>
       </c>
       <c r="S6">
-        <v>0.002476871865241013</v>
+        <v>0.007334807083097631</v>
       </c>
       <c r="T6">
-        <v>0.001805138196151505</v>
+        <v>0.0056266771626668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H7">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I7">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J7">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N7">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O7">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P7">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q7">
-        <v>521.5839757229996</v>
+        <v>648.755437565859</v>
       </c>
       <c r="R7">
-        <v>3129.503854337998</v>
+        <v>3892.532625395154</v>
       </c>
       <c r="S7">
-        <v>0.02513105596032761</v>
+        <v>0.03309937085428383</v>
       </c>
       <c r="T7">
-        <v>0.01831545251098165</v>
+        <v>0.02539118915800924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J8">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N8">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O8">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P8">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q8">
-        <v>139.983106816602</v>
+        <v>300.9309305998053</v>
       </c>
       <c r="R8">
-        <v>839.898640899612</v>
+        <v>1805.585583598832</v>
       </c>
       <c r="S8">
-        <v>0.006744692043178919</v>
+        <v>0.015353435049146</v>
       </c>
       <c r="T8">
-        <v>0.004915515170275754</v>
+        <v>0.01177792699668853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J9">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P9">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q9">
         <v>753.3563586557307</v>
@@ -1013,10 +1013,10 @@
         <v>6780.207227901577</v>
       </c>
       <c r="S9">
-        <v>0.03629835594776873</v>
+        <v>0.03843608863478316</v>
       </c>
       <c r="T9">
-        <v>0.03968123040497577</v>
+        <v>0.04422763810147221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J10">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N10">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O10">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P10">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q10">
-        <v>2084.019049328126</v>
+        <v>1179.067236246922</v>
       </c>
       <c r="R10">
-        <v>18756.17144395313</v>
+        <v>10611.6051262223</v>
       </c>
       <c r="S10">
-        <v>0.1004125927727277</v>
+        <v>0.06015577127353257</v>
       </c>
       <c r="T10">
-        <v>0.1097706803886401</v>
+        <v>0.06922004231182474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J11">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N11">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O11">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P11">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q11">
-        <v>316.6629968196403</v>
+        <v>457.2345151133994</v>
       </c>
       <c r="R11">
-        <v>1899.977980917842</v>
+        <v>2743.407090680396</v>
       </c>
       <c r="S11">
-        <v>0.01525751530730646</v>
+        <v>0.02332801223200644</v>
       </c>
       <c r="T11">
-        <v>0.01111964007750767</v>
+        <v>0.01789538459419291</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J12">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N12">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O12">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P12">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q12">
-        <v>199.6191661402151</v>
+        <v>331.1140150743211</v>
       </c>
       <c r="R12">
-        <v>1796.572495261936</v>
+        <v>2980.026135668891</v>
       </c>
       <c r="S12">
-        <v>0.009618087726084388</v>
+        <v>0.01689336989777955</v>
       </c>
       <c r="T12">
-        <v>0.01051445844167729</v>
+        <v>0.01943886271188254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J13">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N13">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O13">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P13">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q13">
-        <v>2025.393604499413</v>
+        <v>1494.19956869096</v>
       </c>
       <c r="R13">
-        <v>18228.54244049472</v>
+        <v>13447.79611821864</v>
       </c>
       <c r="S13">
-        <v>0.09758789070505548</v>
+        <v>0.07623375896466743</v>
       </c>
       <c r="T13">
-        <v>0.1066827263850483</v>
+        <v>0.08772066103398909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H14">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I14">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J14">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N14">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O14">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P14">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q14">
-        <v>134.835685958871</v>
+        <v>310.7053220637213</v>
       </c>
       <c r="R14">
-        <v>809.0141157532261</v>
+        <v>1864.231932382328</v>
       </c>
       <c r="S14">
-        <v>0.006496678055694581</v>
+        <v>0.01585212251934737</v>
       </c>
       <c r="T14">
-        <v>0.004734763178914967</v>
+        <v>0.01216048012563942</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H15">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I15">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J15">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P15">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q15">
-        <v>725.6541428524388</v>
+        <v>777.8257608094226</v>
       </c>
       <c r="R15">
-        <v>6530.887285671949</v>
+        <v>7000.431847284804</v>
       </c>
       <c r="S15">
-        <v>0.03496360264248826</v>
+        <v>0.03968451257016704</v>
       </c>
       <c r="T15">
-        <v>0.03822208295717262</v>
+        <v>0.04566417454346092</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H16">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I16">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J16">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N16">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O16">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P16">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q16">
-        <v>2007.386065774798</v>
+        <v>1217.363946745854</v>
       </c>
       <c r="R16">
-        <v>18066.47459197319</v>
+        <v>10956.27552071268</v>
       </c>
       <c r="S16">
-        <v>0.09672024813078207</v>
+        <v>0.06210966167645441</v>
       </c>
       <c r="T16">
-        <v>0.1057342226856396</v>
+        <v>0.07146834490191098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H17">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I17">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J17">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N17">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O17">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P17">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q17">
-        <v>305.0187509404819</v>
+        <v>472.0857274252223</v>
       </c>
       <c r="R17">
-        <v>1830.112505642891</v>
+        <v>2832.514364551334</v>
       </c>
       <c r="S17">
-        <v>0.01469647009037986</v>
+        <v>0.02408571807226744</v>
       </c>
       <c r="T17">
-        <v>0.01071075168685055</v>
+        <v>0.01847663589352707</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H18">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I18">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J18">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N18">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O18">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P18">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q18">
-        <v>192.2788242749698</v>
+        <v>341.8687686520761</v>
       </c>
       <c r="R18">
-        <v>1730.509418474728</v>
+        <v>3076.818917868685</v>
       </c>
       <c r="S18">
-        <v>0.009264414011458263</v>
+        <v>0.01744207524420743</v>
       </c>
       <c r="T18">
-        <v>0.01012782362608241</v>
+        <v>0.02007024697464526</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H19">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I19">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J19">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N19">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O19">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P19">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q19">
-        <v>1950.916379911348</v>
+        <v>1542.731939492758</v>
       </c>
       <c r="R19">
-        <v>17558.24741920213</v>
+        <v>13884.58745543482</v>
       </c>
       <c r="S19">
-        <v>0.09399941524183195</v>
+        <v>0.07870987068040661</v>
       </c>
       <c r="T19">
-        <v>0.1027598180895962</v>
+        <v>0.0905698732392972</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H20">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I20">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J20">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N20">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O20">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P20">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q20">
-        <v>57.610821551391</v>
+        <v>180.581358610084</v>
       </c>
       <c r="R20">
-        <v>230.443286205564</v>
+        <v>722.3254344403359</v>
       </c>
       <c r="S20">
-        <v>0.002775815300540132</v>
+        <v>0.009213224293628856</v>
       </c>
       <c r="T20">
-        <v>0.0013486716302081</v>
+        <v>0.004711765707462477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H21">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I21">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J21">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P21">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q21">
-        <v>310.047974574412</v>
+        <v>452.070893784308</v>
       </c>
       <c r="R21">
-        <v>1860.287847446472</v>
+        <v>2712.425362705848</v>
       </c>
       <c r="S21">
-        <v>0.01493878907728145</v>
+        <v>0.02306456531900028</v>
       </c>
       <c r="T21">
-        <v>0.01088735317562649</v>
+        <v>0.01769328919997284</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H22">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I22">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J22">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N22">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O22">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P22">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q22">
-        <v>857.6895619115006</v>
+        <v>707.5296746324013</v>
       </c>
       <c r="R22">
-        <v>5146.137371469004</v>
+        <v>4245.178047794408</v>
       </c>
       <c r="S22">
-        <v>0.04132535771849313</v>
+        <v>0.0360980205097568</v>
       </c>
       <c r="T22">
-        <v>0.03011782027731886</v>
+        <v>0.027691513262534</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H23">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I23">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J23">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N23">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O23">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P23">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q23">
-        <v>130.3244071129685</v>
+        <v>274.375351772677</v>
       </c>
       <c r="R23">
-        <v>521.2976284518741</v>
+        <v>1097.501407090708</v>
       </c>
       <c r="S23">
-        <v>0.006279314780736098</v>
+        <v>0.01399857480296878</v>
       </c>
       <c r="T23">
-        <v>0.003050899568237585</v>
+        <v>0.007159057742205188</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H24">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I24">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J24">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N24">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O24">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P24">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q24">
-        <v>82.15437148289865</v>
+        <v>198.6934961380784</v>
       </c>
       <c r="R24">
-        <v>492.926228897392</v>
+        <v>1192.16097682847</v>
       </c>
       <c r="S24">
-        <v>0.003958377180319553</v>
+        <v>0.0101373018770896</v>
       </c>
       <c r="T24">
-        <v>0.002884855669461137</v>
+        <v>0.007776526951107011</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H25">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I25">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J25">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N25">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O25">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P25">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q25">
-        <v>833.5619359628722</v>
+        <v>896.6329503285352</v>
       </c>
       <c r="R25">
-        <v>5001.371615777233</v>
+        <v>5379.797701971212</v>
       </c>
       <c r="S25">
-        <v>0.04016283596528104</v>
+        <v>0.04574603128483536</v>
       </c>
       <c r="T25">
-        <v>0.0292705772487111</v>
+        <v>0.03509269522659619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H26">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I26">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J26">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N26">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O26">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P26">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q26">
-        <v>36.617441731551</v>
+        <v>112.8292407502027</v>
       </c>
       <c r="R26">
-        <v>219.704650389306</v>
+        <v>676.975444501216</v>
       </c>
       <c r="S26">
-        <v>0.001764308376238072</v>
+        <v>0.005756524980831646</v>
       </c>
       <c r="T26">
-        <v>0.001285823657021307</v>
+        <v>0.00441594540647242</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H27">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I27">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J27">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P27">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q27">
-        <v>197.066511763532</v>
+        <v>282.4589210289653</v>
       </c>
       <c r="R27">
-        <v>1773.598605871788</v>
+        <v>2542.130289260688</v>
       </c>
       <c r="S27">
-        <v>0.00949509525895793</v>
+        <v>0.01441099686704283</v>
       </c>
       <c r="T27">
-        <v>0.01038000352495478</v>
+        <v>0.01658244573669315</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H28">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I28">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J28">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N28">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O28">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P28">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q28">
-        <v>545.1475384540073</v>
+        <v>442.0724077582276</v>
       </c>
       <c r="R28">
-        <v>4906.327846086066</v>
+        <v>3978.651669824048</v>
       </c>
       <c r="S28">
-        <v>0.02626639991485917</v>
+        <v>0.0225544445896846</v>
       </c>
       <c r="T28">
-        <v>0.02871433263893684</v>
+        <v>0.02595294808404498</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H29">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I29">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J29">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N29">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O29">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P29">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q29">
-        <v>82.83420119952851</v>
+        <v>171.4327705769747</v>
       </c>
       <c r="R29">
-        <v>497.005207197171</v>
+        <v>1028.596623461848</v>
       </c>
       <c r="S29">
-        <v>0.003991132861949603</v>
+        <v>0.008746465187551679</v>
       </c>
       <c r="T29">
-        <v>0.002908727930631025</v>
+        <v>0.006709588318725541</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H30">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I30">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J30">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N30">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O30">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P30">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q30">
-        <v>52.21732358188533</v>
+        <v>124.1459056672022</v>
       </c>
       <c r="R30">
-        <v>469.955912236968</v>
+        <v>1117.31315100482</v>
       </c>
       <c r="S30">
-        <v>0.002515944779967344</v>
+        <v>0.006333898929829809</v>
       </c>
       <c r="T30">
-        <v>0.002750421662174956</v>
+        <v>0.007288290759801848</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H31">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I31">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J31">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N31">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O31">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P31">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q31">
-        <v>529.8120179128456</v>
+        <v>560.2262370592969</v>
       </c>
       <c r="R31">
-        <v>4768.30816121561</v>
+        <v>5042.036133533672</v>
       </c>
       <c r="S31">
-        <v>0.02552750101681219</v>
+        <v>0.02858262899853255</v>
       </c>
       <c r="T31">
-        <v>0.02790657105707414</v>
+        <v>0.0328894592617768</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H32">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I32">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J32">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N32">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O32">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P32">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q32">
-        <v>121.316488907247</v>
+        <v>270.4155361286613</v>
       </c>
       <c r="R32">
-        <v>727.8989334434818</v>
+        <v>1622.493216771968</v>
       </c>
       <c r="S32">
-        <v>0.005845293593255702</v>
+        <v>0.01379654581187834</v>
       </c>
       <c r="T32">
-        <v>0.004260035765668816</v>
+        <v>0.01058360613495482</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H33">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I33">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J33">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P33">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q33">
-        <v>652.8969845468706</v>
+        <v>676.9635252042026</v>
       </c>
       <c r="R33">
-        <v>5876.072860921835</v>
+        <v>6092.671726837823</v>
       </c>
       <c r="S33">
-        <v>0.03145800373225122</v>
+        <v>0.03453854176487352</v>
       </c>
       <c r="T33">
-        <v>0.03438977500733836</v>
+        <v>0.03974280890660215</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H34">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I34">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J34">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N34">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O34">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P34">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q34">
-        <v>1806.117035333022</v>
+        <v>1059.505907837234</v>
       </c>
       <c r="R34">
-        <v>16255.0533179972</v>
+        <v>9535.553170535104</v>
       </c>
       <c r="S34">
-        <v>0.087022666336591</v>
+        <v>0.05405577654560962</v>
       </c>
       <c r="T34">
-        <v>0.09513286161848505</v>
+        <v>0.06220090043682873</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H35">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I35">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J35">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N35">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O35">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P35">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q35">
-        <v>274.4362788813978</v>
+        <v>410.8694187549173</v>
       </c>
       <c r="R35">
-        <v>1646.617673288387</v>
+        <v>2465.216512529504</v>
       </c>
       <c r="S35">
-        <v>0.01322293974340815</v>
+        <v>0.02096247441883288</v>
       </c>
       <c r="T35">
-        <v>0.009636846350916592</v>
+        <v>0.016080733242083</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H36">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I36">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J36">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N36">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O36">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P36">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q36">
-        <v>173.0001348409217</v>
+        <v>297.5379557281511</v>
       </c>
       <c r="R36">
-        <v>1557.001213568296</v>
+        <v>2677.84160155336</v>
       </c>
       <c r="S36">
-        <v>0.008335524617689501</v>
+        <v>0.01518032615930374</v>
       </c>
       <c r="T36">
-        <v>0.009112365126862362</v>
+        <v>0.01746769755933011</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H37">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I37">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J37">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N37">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O37">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P37">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q37">
-        <v>1755.309239385451</v>
+        <v>1342.682776560828</v>
       </c>
       <c r="R37">
-        <v>15797.78315446906</v>
+        <v>12084.14498904745</v>
       </c>
       <c r="S37">
-        <v>0.08457463567880597</v>
+        <v>0.06850340295842962</v>
       </c>
       <c r="T37">
-        <v>0.09245668342711484</v>
+        <v>0.07882549505890529</v>
       </c>
     </row>
   </sheetData>
